--- a/旧飞坡射速.xlsx
+++ b/旧飞坡射速.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Githubfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82021A34-18D8-40C6-A081-5FEB02A8D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0994875-08A4-4585-ABDD-D2C4609CD875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2970C3E9-E6A7-401E-A08D-E461A4051E84}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12970" windowHeight="15370" xr2:uid="{2970C3E9-E6A7-401E-A08D-E461A4051E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,14 @@
     <t>电机读取温度(R)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>电机平均温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的数据接近完美，射速变化与电机温度和摩擦轮温度的关系越来越明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,7 +327,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -327,21 +341,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +761,2147 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>第一组</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$138:$K$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$139:$K$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8257-44BA-85F8-DB03B1989976}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1147931791"/>
+        <c:axId val="1147919791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1147931791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147919791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1147919791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147931791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>第二组</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$148:$K$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$149:$K$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DDC-45D8-8DD6-14F756EA4ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="925063887"/>
+        <c:axId val="925064847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="925063887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925064847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="925064847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925063887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>第三组</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$158:$K$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$159:$K$159</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F654-4B06-8B61-6547146737E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1166769583"/>
+        <c:axId val="1166774863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1166769583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166774863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1166774863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166769583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>第四组</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$168:$K$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$169:$K$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12EA-4AF1-80DF-18772F4C8C03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1166764783"/>
+        <c:axId val="1166758063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1166764783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166758063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1166758063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166764783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>第五组</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$178:$K$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$179:$K$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0411-4DD7-A161-51FC364F324F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1147929871"/>
+        <c:axId val="1147922671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1147929871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147922671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1147922671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147929871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1318,6 +3457,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1351,6 +6070,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108969</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>148950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235185</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>34964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80AE9E1-63B3-30FA-8088-734163DE4A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85451</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>156790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>144718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8128C6BF-D743-0F88-80DA-256B1C85B81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108968</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>31358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297901</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>74162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C897D48C-232C-E14D-5833-CE34498C10FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85451</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>148949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>509569</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>160396</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1FCA28-BBFC-366F-291E-87B79FDAB847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187364</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>117592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368457</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>97679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF63B9B7-21A1-0D44-E205-17CFB3B528A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1656,10 +6555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E88F012-B31F-48B5-9F67-BDEDAFCED6F3}">
-  <dimension ref="A12:U107"/>
+  <dimension ref="A12:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="102" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1692,7 +6591,7 @@
       <c r="C13">
         <v>5340</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1755,19 +6654,19 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1898,19 +6797,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -2034,19 +6933,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -2170,19 +7069,19 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -2346,193 +7245,129 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -2547,9 +7382,9 @@
       <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2561,18 +7396,12 @@
       <c r="C59">
         <v>5380</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
@@ -2596,9 +7425,9 @@
       <c r="H61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -2625,50 +7454,21 @@
       <c r="H62" s="1">
         <v>10000</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -2776,37 +7576,37 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="1">
         <v>27</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="1">
         <v>28</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="1">
         <v>30</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="1">
         <v>31</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="1">
         <v>30</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="1">
         <v>31</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="1">
         <v>33</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="1">
         <v>35</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="1">
         <v>35</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="1">
         <v>36</v>
       </c>
     </row>
@@ -2823,13 +7623,13 @@
       <c r="D70" s="2">
         <v>31</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="2">
         <v>32</v>
       </c>
       <c r="F70" s="2">
         <v>31</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="2">
         <v>32</v>
       </c>
       <c r="H70" s="2">
@@ -2858,19 +7658,19 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -2978,37 +7778,37 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="1">
         <v>33</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="1">
         <v>33</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="1">
         <v>35</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="1">
         <v>35</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="1">
         <v>37</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="1">
         <v>38</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="1">
         <v>37</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="1">
         <v>38</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="1">
         <v>39</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="1">
         <v>39</v>
       </c>
     </row>
@@ -3134,19 +7934,19 @@
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -3289,19 +8089,19 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -3444,19 +8244,19 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -3599,66 +8399,2886 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>45116</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="C126">
+        <v>5380</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1">
+        <v>27</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G129" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H129" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="D133" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="E133">
+        <v>26</v>
+      </c>
+      <c r="F133" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="1">
+        <v>28</v>
+      </c>
+      <c r="I133" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="J133" s="1">
+        <v>27</v>
+      </c>
+      <c r="K133" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1">
+        <v>4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+      <c r="G134" s="1">
+        <v>6</v>
+      </c>
+      <c r="H134" s="1">
+        <v>7</v>
+      </c>
+      <c r="I134" s="1">
+        <v>8</v>
+      </c>
+      <c r="J134" s="1">
+        <v>9</v>
+      </c>
+      <c r="K134" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="C135" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="D135" s="1">
+        <v>14.42</v>
+      </c>
+      <c r="E135" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="F135" s="1">
+        <v>14.48</v>
+      </c>
+      <c r="G135" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="H135" s="1">
+        <v>13.36</v>
+      </c>
+      <c r="I135" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="J135" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="K135" s="1">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="1">
+        <v>27</v>
+      </c>
+      <c r="C136" s="1">
+        <v>29</v>
+      </c>
+      <c r="D136" s="1">
+        <v>31</v>
+      </c>
+      <c r="E136" s="1">
+        <v>32</v>
+      </c>
+      <c r="F136" s="1">
+        <v>34</v>
+      </c>
+      <c r="G136" s="1">
+        <v>35</v>
+      </c>
+      <c r="H136" s="1">
+        <v>35</v>
+      </c>
+      <c r="I136" s="1">
+        <v>37</v>
+      </c>
+      <c r="J136" s="1">
+        <v>37</v>
+      </c>
+      <c r="K136" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137" s="1">
+        <v>29</v>
+      </c>
+      <c r="C137" s="1">
+        <v>30</v>
+      </c>
+      <c r="D137" s="1">
+        <v>33</v>
+      </c>
+      <c r="E137" s="1">
+        <v>34</v>
+      </c>
+      <c r="F137" s="1">
+        <v>35</v>
+      </c>
+      <c r="G137" s="1">
+        <v>36</v>
+      </c>
+      <c r="H137" s="1">
+        <v>37</v>
+      </c>
+      <c r="I137" s="1">
+        <v>37</v>
+      </c>
+      <c r="J137" s="1">
+        <v>38</v>
+      </c>
+      <c r="K137" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="2">
+        <f>(B136+B137)/2</f>
+        <v>28</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" ref="C138:K138" si="12">(C136+C137)/2</f>
+        <v>29.5</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="12"/>
+        <v>34.5</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="12"/>
+        <v>35.5</v>
+      </c>
+      <c r="H138" s="2">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="I138" s="2">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="12"/>
+        <v>37.5</v>
+      </c>
+      <c r="K138" s="2">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="C139" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="D139" s="1">
+        <v>14.42</v>
+      </c>
+      <c r="E139" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="F139" s="1">
+        <v>14.48</v>
+      </c>
+      <c r="G139" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="H139" s="1">
+        <v>13.36</v>
+      </c>
+      <c r="I139" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="J139" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="K139" s="1">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="D143" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="E143">
+        <v>28.8</v>
+      </c>
+      <c r="F143" s="1">
+        <v>29</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="I143" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="J143" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="K143" s="1">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>4</v>
+      </c>
+      <c r="F144" s="1">
+        <v>5</v>
+      </c>
+      <c r="G144" s="1">
+        <v>6</v>
+      </c>
+      <c r="H144" s="1">
+        <v>7</v>
+      </c>
+      <c r="I144" s="1">
+        <v>8</v>
+      </c>
+      <c r="J144" s="1">
+        <v>9</v>
+      </c>
+      <c r="K144" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="1">
+        <v>14.61</v>
+      </c>
+      <c r="C145" s="1">
+        <v>14.67</v>
+      </c>
+      <c r="D145" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="E145" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="F145" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="G145" s="1">
+        <v>14.74</v>
+      </c>
+      <c r="H145" s="1">
+        <v>14.58</v>
+      </c>
+      <c r="I145" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="J145" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="K145" s="1">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="1">
+        <v>32</v>
+      </c>
+      <c r="C146" s="1">
+        <v>33</v>
+      </c>
+      <c r="D146" s="1">
+        <v>35</v>
+      </c>
+      <c r="E146" s="1">
+        <v>37</v>
+      </c>
+      <c r="F146" s="1">
+        <v>37</v>
+      </c>
+      <c r="G146" s="1">
+        <v>38</v>
+      </c>
+      <c r="H146" s="1">
+        <v>39</v>
+      </c>
+      <c r="I146" s="1">
+        <v>40</v>
+      </c>
+      <c r="J146" s="1">
+        <v>40</v>
+      </c>
+      <c r="K146" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B147" s="1">
+        <v>34</v>
+      </c>
+      <c r="C147" s="1">
+        <v>34</v>
+      </c>
+      <c r="D147" s="1">
+        <v>36</v>
+      </c>
+      <c r="E147" s="1">
+        <v>38</v>
+      </c>
+      <c r="F147" s="1">
+        <v>39</v>
+      </c>
+      <c r="G147" s="1">
+        <v>39</v>
+      </c>
+      <c r="H147" s="1">
+        <v>40</v>
+      </c>
+      <c r="I147" s="1">
+        <v>40</v>
+      </c>
+      <c r="J147" s="1">
+        <v>41</v>
+      </c>
+      <c r="K147" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="2">
+        <f>(B146+B147)/2</f>
+        <v>33</v>
+      </c>
+      <c r="C148" s="2">
+        <f t="shared" ref="C148:F148" si="13">(C146+C147)/2</f>
+        <v>33.5</v>
+      </c>
+      <c r="D148" s="2">
+        <f t="shared" si="13"/>
+        <v>35.5</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="13"/>
+        <v>37.5</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="G148" s="2">
+        <f t="shared" ref="G148" si="14">(G146+G147)/2</f>
+        <v>38.5</v>
+      </c>
+      <c r="H148" s="2">
+        <f t="shared" ref="H148" si="15">(H146+H147)/2</f>
+        <v>39.5</v>
+      </c>
+      <c r="I148" s="2">
+        <f t="shared" ref="I148:J148" si="16">(I146+I147)/2</f>
+        <v>40</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="16"/>
+        <v>40.5</v>
+      </c>
+      <c r="K148" s="2">
+        <f t="shared" ref="K148" si="17">(K146+K147)/2</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>14.61</v>
+      </c>
+      <c r="C149" s="1">
+        <v>14.67</v>
+      </c>
+      <c r="D149" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="E149" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="F149" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="G149" s="1">
+        <v>14.74</v>
+      </c>
+      <c r="H149" s="1">
+        <v>14.58</v>
+      </c>
+      <c r="I149" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="J149" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="K149" s="1">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="1">
+        <v>30</v>
+      </c>
+      <c r="D153" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="E153">
+        <v>30.4</v>
+      </c>
+      <c r="F153" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="I153" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J153" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K153" s="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" s="1">
+        <v>4</v>
+      </c>
+      <c r="F154" s="1">
+        <v>5</v>
+      </c>
+      <c r="G154" s="1">
+        <v>6</v>
+      </c>
+      <c r="H154" s="1">
+        <v>7</v>
+      </c>
+      <c r="I154" s="1">
+        <v>8</v>
+      </c>
+      <c r="J154" s="1">
+        <v>9</v>
+      </c>
+      <c r="K154" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="C155" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="D155" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="E155" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="F155" s="1">
+        <v>14.89</v>
+      </c>
+      <c r="G155" s="1">
+        <v>14.83</v>
+      </c>
+      <c r="H155" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="I155" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="J155" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="K155" s="1">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="1">
+        <v>35</v>
+      </c>
+      <c r="C156" s="1">
+        <v>37</v>
+      </c>
+      <c r="D156" s="1">
+        <v>38</v>
+      </c>
+      <c r="E156" s="1">
+        <v>40</v>
+      </c>
+      <c r="F156" s="1">
+        <v>40</v>
+      </c>
+      <c r="G156" s="1">
+        <v>40</v>
+      </c>
+      <c r="H156" s="1">
+        <v>41</v>
+      </c>
+      <c r="I156" s="1">
+        <v>41</v>
+      </c>
+      <c r="J156" s="1">
+        <v>41</v>
+      </c>
+      <c r="K156" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" s="1">
+        <v>37</v>
+      </c>
+      <c r="C157" s="1">
+        <v>38</v>
+      </c>
+      <c r="D157" s="1">
+        <v>39</v>
+      </c>
+      <c r="E157" s="1">
+        <v>40</v>
+      </c>
+      <c r="F157" s="1">
+        <v>41</v>
+      </c>
+      <c r="G157" s="1">
+        <v>41</v>
+      </c>
+      <c r="H157" s="1">
+        <v>42</v>
+      </c>
+      <c r="I157" s="1">
+        <v>43</v>
+      </c>
+      <c r="J157" s="1">
+        <v>43</v>
+      </c>
+      <c r="K157" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="2">
+        <f>(B156+B157)/2</f>
+        <v>36</v>
+      </c>
+      <c r="C158" s="2">
+        <f t="shared" ref="C158:K158" si="18">(C156+C157)/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="18"/>
+        <v>38.5</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="18"/>
+        <v>40.5</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" si="18"/>
+        <v>40.5</v>
+      </c>
+      <c r="H158" s="2">
+        <f t="shared" si="18"/>
+        <v>41.5</v>
+      </c>
+      <c r="I158" s="2">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="K158" s="2">
+        <f t="shared" si="18"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="C159" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="D159" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="E159" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="F159" s="1">
+        <v>14.89</v>
+      </c>
+      <c r="G159" s="1">
+        <v>14.83</v>
+      </c>
+      <c r="H159" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="I159" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="J159" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="K159" s="1">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>31</v>
+      </c>
+      <c r="E163">
+        <v>31.1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I163" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="J163" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K163" s="1">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+      <c r="E164" s="1">
+        <v>4</v>
+      </c>
+      <c r="F164" s="1">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1">
+        <v>6</v>
+      </c>
+      <c r="H164" s="1">
+        <v>7</v>
+      </c>
+      <c r="I164" s="1">
+        <v>8</v>
+      </c>
+      <c r="J164" s="1">
+        <v>9</v>
+      </c>
+      <c r="K164" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="C165" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="D165" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="E165" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="F165" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="G165" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="H165" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="I165" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="J165" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="K165" s="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="1">
+        <v>36</v>
+      </c>
+      <c r="C166" s="1">
+        <v>37</v>
+      </c>
+      <c r="D166" s="1">
+        <v>40</v>
+      </c>
+      <c r="E166" s="1">
+        <v>40</v>
+      </c>
+      <c r="F166" s="1">
+        <v>40</v>
+      </c>
+      <c r="G166" s="1">
+        <v>41</v>
+      </c>
+      <c r="H166" s="1">
+        <v>42</v>
+      </c>
+      <c r="I166" s="1">
+        <v>42</v>
+      </c>
+      <c r="J166" s="1">
+        <v>43</v>
+      </c>
+      <c r="K166" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" s="1">
+        <v>38</v>
+      </c>
+      <c r="C167" s="1">
+        <v>39</v>
+      </c>
+      <c r="D167" s="1">
+        <v>40</v>
+      </c>
+      <c r="E167" s="1">
+        <v>41</v>
+      </c>
+      <c r="F167" s="1">
+        <v>42</v>
+      </c>
+      <c r="G167" s="1">
+        <v>42</v>
+      </c>
+      <c r="H167" s="1">
+        <v>43</v>
+      </c>
+      <c r="I167" s="1">
+        <v>43</v>
+      </c>
+      <c r="J167" s="1">
+        <v>43</v>
+      </c>
+      <c r="K167" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="2">
+        <f>(B166+B167)/2</f>
+        <v>37</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" ref="C168:K168" si="19">(C166+C167)/2</f>
+        <v>38</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="19"/>
+        <v>40.5</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="19"/>
+        <v>41</v>
+      </c>
+      <c r="G168" s="2">
+        <f t="shared" si="19"/>
+        <v>41.5</v>
+      </c>
+      <c r="H168" s="2">
+        <f t="shared" si="19"/>
+        <v>42.5</v>
+      </c>
+      <c r="I168" s="2">
+        <f t="shared" si="19"/>
+        <v>42.5</v>
+      </c>
+      <c r="J168" s="2">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="K168" s="2">
+        <f t="shared" si="19"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="C169" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="D169" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="E169" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="F169" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="G169" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="H169" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="I169" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="J169" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="K169" s="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="D173" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E173">
+        <v>33.1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>32</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="I173" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="J173" s="1">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K173" s="1">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1">
+        <v>4</v>
+      </c>
+      <c r="F174" s="1">
+        <v>5</v>
+      </c>
+      <c r="G174" s="1">
+        <v>6</v>
+      </c>
+      <c r="H174" s="1">
+        <v>7</v>
+      </c>
+      <c r="I174" s="1">
+        <v>8</v>
+      </c>
+      <c r="J174" s="1">
+        <v>9</v>
+      </c>
+      <c r="K174" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D175" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="E175" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="F175" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="G175" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="H175" s="1">
+        <v>15.17</v>
+      </c>
+      <c r="I175" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="J175" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="K175" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" s="1">
+        <v>39</v>
+      </c>
+      <c r="C176" s="1">
+        <v>40</v>
+      </c>
+      <c r="D176" s="1">
+        <v>40</v>
+      </c>
+      <c r="E176" s="1">
+        <v>41</v>
+      </c>
+      <c r="F176" s="1">
+        <v>42</v>
+      </c>
+      <c r="G176" s="1">
+        <v>42</v>
+      </c>
+      <c r="H176" s="1">
+        <v>43</v>
+      </c>
+      <c r="I176" s="1">
+        <v>43</v>
+      </c>
+      <c r="J176" s="1">
+        <v>43</v>
+      </c>
+      <c r="K176" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="1">
+        <v>40</v>
+      </c>
+      <c r="C177" s="1">
+        <v>41</v>
+      </c>
+      <c r="D177" s="1">
+        <v>42</v>
+      </c>
+      <c r="E177" s="1">
+        <v>42</v>
+      </c>
+      <c r="F177" s="1">
+        <v>43</v>
+      </c>
+      <c r="G177" s="1">
+        <v>43</v>
+      </c>
+      <c r="H177" s="1">
+        <v>43</v>
+      </c>
+      <c r="I177" s="1">
+        <v>44</v>
+      </c>
+      <c r="J177" s="1">
+        <v>44</v>
+      </c>
+      <c r="K177" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="2">
+        <f>(B176+B177)/2</f>
+        <v>39.5</v>
+      </c>
+      <c r="C178" s="2">
+        <f t="shared" ref="C178:F178" si="20">(C176+C177)/2</f>
+        <v>40.5</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="20"/>
+        <v>41.5</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="20"/>
+        <v>42.5</v>
+      </c>
+      <c r="G178" s="2">
+        <f t="shared" ref="G178" si="21">(G176+G177)/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="H178" s="2">
+        <f t="shared" ref="H178" si="22">(H176+H177)/2</f>
+        <v>43</v>
+      </c>
+      <c r="I178" s="2">
+        <f t="shared" ref="I178" si="23">(I176+I177)/2</f>
+        <v>43.5</v>
+      </c>
+      <c r="J178" s="2">
+        <f t="shared" ref="J178:K178" si="24">(J176+J177)/2</f>
+        <v>43.5</v>
+      </c>
+      <c r="K178" s="2">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B179" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D179" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="E179" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="F179" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="G179" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="H179" s="1">
+        <v>15.17</v>
+      </c>
+      <c r="I179" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="J179" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="K179" s="1">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B202" s="5">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="C202">
+        <v>5380</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="1">
+        <v>27</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G205" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H205" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="7"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="D209" s="1">
+        <v>28</v>
+      </c>
+      <c r="E209" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="F209" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="I209" s="1">
+        <v>31</v>
+      </c>
+      <c r="J209" s="1">
+        <v>31</v>
+      </c>
+      <c r="K209" s="1">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>4</v>
+      </c>
+      <c r="F210" s="1">
+        <v>5</v>
+      </c>
+      <c r="G210" s="1">
+        <v>6</v>
+      </c>
+      <c r="H210" s="1">
+        <v>7</v>
+      </c>
+      <c r="I210" s="1">
+        <v>8</v>
+      </c>
+      <c r="J210" s="1">
+        <v>9</v>
+      </c>
+      <c r="K210" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="C211" s="1">
+        <v>14.53</v>
+      </c>
+      <c r="D211" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="E211" s="1">
+        <v>14.54</v>
+      </c>
+      <c r="F211" s="1">
+        <v>14.46</v>
+      </c>
+      <c r="G211" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="H211" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="I211" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="J211" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="K211" s="1">
+        <v>14.73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" s="1">
+        <v>31</v>
+      </c>
+      <c r="C212" s="1">
+        <v>31</v>
+      </c>
+      <c r="D212" s="1">
+        <v>32</v>
+      </c>
+      <c r="E212" s="1">
+        <v>35</v>
+      </c>
+      <c r="F212" s="1">
+        <v>36</v>
+      </c>
+      <c r="G212" s="1">
+        <v>37</v>
+      </c>
+      <c r="H212" s="1">
+        <v>37</v>
+      </c>
+      <c r="I212" s="1">
+        <v>38</v>
+      </c>
+      <c r="J212" s="1">
+        <v>39</v>
+      </c>
+      <c r="K212" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" s="1">
+        <v>31</v>
+      </c>
+      <c r="C213" s="1">
+        <v>32</v>
+      </c>
+      <c r="D213" s="1">
+        <v>35</v>
+      </c>
+      <c r="E213" s="1">
+        <v>37</v>
+      </c>
+      <c r="F213" s="1">
+        <v>37</v>
+      </c>
+      <c r="G213" s="1">
+        <v>38</v>
+      </c>
+      <c r="H213" s="1">
+        <v>39</v>
+      </c>
+      <c r="I213" s="1">
+        <v>40</v>
+      </c>
+      <c r="J213" s="1">
+        <v>40</v>
+      </c>
+      <c r="K213" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" s="2">
+        <f>(B212+B213)/2</f>
+        <v>31</v>
+      </c>
+      <c r="C214" s="2">
+        <f t="shared" ref="C214:K214" si="25">(C212+C213)/2</f>
+        <v>31.5</v>
+      </c>
+      <c r="D214" s="2">
+        <f t="shared" si="25"/>
+        <v>33.5</v>
+      </c>
+      <c r="E214" s="2">
+        <f t="shared" si="25"/>
+        <v>36</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="25"/>
+        <v>36.5</v>
+      </c>
+      <c r="G214" s="2">
+        <f t="shared" si="25"/>
+        <v>37.5</v>
+      </c>
+      <c r="H214" s="2">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="I214" s="2">
+        <f t="shared" si="25"/>
+        <v>39</v>
+      </c>
+      <c r="J214" s="2">
+        <f t="shared" si="25"/>
+        <v>39.5</v>
+      </c>
+      <c r="K214" s="2">
+        <f t="shared" si="25"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="D219" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="E219">
+        <v>29.7</v>
+      </c>
+      <c r="F219" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" s="1">
+        <v>32</v>
+      </c>
+      <c r="I219" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="J219" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="K219" s="1">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1">
+        <v>4</v>
+      </c>
+      <c r="F220" s="1">
+        <v>5</v>
+      </c>
+      <c r="G220" s="1">
+        <v>6</v>
+      </c>
+      <c r="H220" s="1">
+        <v>7</v>
+      </c>
+      <c r="I220" s="1">
+        <v>8</v>
+      </c>
+      <c r="J220" s="1">
+        <v>9</v>
+      </c>
+      <c r="K220" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="C221" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="D221" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="E221" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="F221" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="G221" s="1">
+        <v>14.52</v>
+      </c>
+      <c r="H221" s="1">
+        <v>14.71</v>
+      </c>
+      <c r="I221" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="J221" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="K221" s="1">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="1">
+        <v>35</v>
+      </c>
+      <c r="C222" s="1">
+        <v>37</v>
+      </c>
+      <c r="D222" s="1">
+        <v>38</v>
+      </c>
+      <c r="E222" s="1">
+        <v>39</v>
+      </c>
+      <c r="F222" s="1">
+        <v>40</v>
+      </c>
+      <c r="G222" s="1">
+        <v>40</v>
+      </c>
+      <c r="H222" s="1">
+        <v>40</v>
+      </c>
+      <c r="I222" s="1">
+        <v>41</v>
+      </c>
+      <c r="J222" s="1">
+        <v>41</v>
+      </c>
+      <c r="K222" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B223" s="1">
+        <v>37</v>
+      </c>
+      <c r="C223" s="1">
+        <v>39</v>
+      </c>
+      <c r="D223" s="1">
+        <v>40</v>
+      </c>
+      <c r="E223" s="1">
+        <v>40</v>
+      </c>
+      <c r="F223" s="1">
+        <v>42</v>
+      </c>
+      <c r="G223" s="1">
+        <v>42</v>
+      </c>
+      <c r="H223" s="1">
+        <v>43</v>
+      </c>
+      <c r="I223" s="1">
+        <v>43</v>
+      </c>
+      <c r="J223" s="1">
+        <v>43</v>
+      </c>
+      <c r="K223" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="2">
+        <f>(B222+B223)/2</f>
+        <v>36</v>
+      </c>
+      <c r="C224" s="2">
+        <f t="shared" ref="C224:K224" si="26">(C222+C223)/2</f>
+        <v>38</v>
+      </c>
+      <c r="D224" s="2">
+        <f t="shared" si="26"/>
+        <v>39</v>
+      </c>
+      <c r="E224" s="2">
+        <f t="shared" si="26"/>
+        <v>39.5</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="26"/>
+        <v>41</v>
+      </c>
+      <c r="G224" s="2">
+        <f t="shared" si="26"/>
+        <v>41</v>
+      </c>
+      <c r="H224" s="2">
+        <f t="shared" si="26"/>
+        <v>41.5</v>
+      </c>
+      <c r="I224" s="2">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="J224" s="2">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="K224" s="2">
+        <f t="shared" si="26"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C229" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="D229" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="E229">
+        <v>30.6</v>
+      </c>
+      <c r="F229" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H229" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="I229" s="1">
+        <v>33.9</v>
+      </c>
+      <c r="J229" s="1">
+        <v>35</v>
+      </c>
+      <c r="K229" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>4</v>
+      </c>
+      <c r="F230" s="1">
+        <v>5</v>
+      </c>
+      <c r="G230" s="1">
+        <v>6</v>
+      </c>
+      <c r="H230" s="1">
+        <v>7</v>
+      </c>
+      <c r="I230" s="1">
+        <v>8</v>
+      </c>
+      <c r="J230" s="1">
+        <v>9</v>
+      </c>
+      <c r="K230" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="1">
+        <v>14.72</v>
+      </c>
+      <c r="C231" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="D231" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="E231" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="F231" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="G231" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="H231" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="I231" s="1">
+        <v>15</v>
+      </c>
+      <c r="J231" s="1">
+        <v>14.73</v>
+      </c>
+      <c r="K231" s="1">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="1">
+        <v>37</v>
+      </c>
+      <c r="C232" s="1">
+        <v>37</v>
+      </c>
+      <c r="D232" s="1">
+        <v>38</v>
+      </c>
+      <c r="E232" s="1">
+        <v>40</v>
+      </c>
+      <c r="F232" s="1">
+        <v>40</v>
+      </c>
+      <c r="G232" s="1">
+        <v>41</v>
+      </c>
+      <c r="H232" s="1">
+        <v>42</v>
+      </c>
+      <c r="I232" s="1">
+        <v>42</v>
+      </c>
+      <c r="J232" s="1">
+        <v>42</v>
+      </c>
+      <c r="K232" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B233" s="1">
+        <v>38</v>
+      </c>
+      <c r="C233" s="1">
+        <v>38</v>
+      </c>
+      <c r="D233" s="1">
+        <v>40</v>
+      </c>
+      <c r="E233" s="1">
+        <v>42</v>
+      </c>
+      <c r="F233" s="1">
+        <v>43</v>
+      </c>
+      <c r="G233" s="1">
+        <v>43</v>
+      </c>
+      <c r="H233" s="1">
+        <v>43</v>
+      </c>
+      <c r="I233" s="1">
+        <v>44</v>
+      </c>
+      <c r="J233" s="1">
+        <v>44</v>
+      </c>
+      <c r="K233" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234" s="2">
+        <f>(B232+B233)/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="C234" s="2">
+        <f t="shared" ref="C234:K234" si="27">(C232+C233)/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D234" s="2">
+        <f t="shared" si="27"/>
+        <v>39</v>
+      </c>
+      <c r="E234" s="2">
+        <f t="shared" si="27"/>
+        <v>41</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="27"/>
+        <v>41.5</v>
+      </c>
+      <c r="G234" s="2">
+        <f t="shared" si="27"/>
+        <v>42</v>
+      </c>
+      <c r="H234" s="2">
+        <f t="shared" si="27"/>
+        <v>42.5</v>
+      </c>
+      <c r="I234" s="2">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+      <c r="J234" s="2">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+      <c r="K234" s="2">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="7"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C239" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="E239">
+        <v>31.6</v>
+      </c>
+      <c r="F239" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="I239" s="1">
+        <v>34</v>
+      </c>
+      <c r="J239" s="1">
+        <v>34</v>
+      </c>
+      <c r="K239" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
+        <v>3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>4</v>
+      </c>
+      <c r="F240" s="1">
+        <v>5</v>
+      </c>
+      <c r="G240" s="1">
+        <v>6</v>
+      </c>
+      <c r="H240" s="1">
+        <v>7</v>
+      </c>
+      <c r="I240" s="1">
+        <v>8</v>
+      </c>
+      <c r="J240" s="1">
+        <v>9</v>
+      </c>
+      <c r="K240" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="C241" s="1">
+        <v>14.99</v>
+      </c>
+      <c r="D241" s="1">
+        <v>14.78</v>
+      </c>
+      <c r="E241" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="F241" s="1">
+        <v>14.94</v>
+      </c>
+      <c r="G241" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="H241" s="1">
+        <v>14.88</v>
+      </c>
+      <c r="I241" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="J241" s="1">
+        <v>15</v>
+      </c>
+      <c r="K241" s="1">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" s="1">
+        <v>38</v>
+      </c>
+      <c r="C242" s="1">
+        <v>38</v>
+      </c>
+      <c r="D242" s="1">
+        <v>38</v>
+      </c>
+      <c r="E242" s="1">
+        <v>40</v>
+      </c>
+      <c r="F242" s="1">
+        <v>41</v>
+      </c>
+      <c r="G242" s="1">
+        <v>41</v>
+      </c>
+      <c r="H242" s="1">
+        <v>42</v>
+      </c>
+      <c r="I242" s="1">
+        <v>43</v>
+      </c>
+      <c r="J242" s="1">
+        <v>43</v>
+      </c>
+      <c r="K242" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B243" s="1">
+        <v>39</v>
+      </c>
+      <c r="C243" s="1">
+        <v>39</v>
+      </c>
+      <c r="D243" s="1">
+        <v>40</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43</v>
+      </c>
+      <c r="F243" s="1">
+        <v>43</v>
+      </c>
+      <c r="G243" s="1">
+        <v>43</v>
+      </c>
+      <c r="H243" s="1">
+        <v>43</v>
+      </c>
+      <c r="I243" s="1">
+        <v>45</v>
+      </c>
+      <c r="J243" s="1">
+        <v>45</v>
+      </c>
+      <c r="K243" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" s="2">
+        <f>(B242+B243)/2</f>
+        <v>38.5</v>
+      </c>
+      <c r="C244" s="2">
+        <f t="shared" ref="C244:K244" si="28">(C242+C243)/2</f>
+        <v>38.5</v>
+      </c>
+      <c r="D244" s="2">
+        <f t="shared" si="28"/>
+        <v>39</v>
+      </c>
+      <c r="E244" s="2">
+        <f t="shared" si="28"/>
+        <v>41.5</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="28"/>
+        <v>42</v>
+      </c>
+      <c r="G244" s="2">
+        <f t="shared" si="28"/>
+        <v>42</v>
+      </c>
+      <c r="H244" s="2">
+        <f t="shared" si="28"/>
+        <v>42.5</v>
+      </c>
+      <c r="I244" s="2">
+        <f t="shared" si="28"/>
+        <v>44</v>
+      </c>
+      <c r="J244" s="2">
+        <f t="shared" si="28"/>
+        <v>44</v>
+      </c>
+      <c r="K244" s="2">
+        <f t="shared" si="28"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="7"/>
+      <c r="J248" s="7"/>
+      <c r="K248" s="7"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249">
+        <v>30.9</v>
+      </c>
+      <c r="D249">
+        <v>31</v>
+      </c>
+      <c r="E249">
+        <v>31.3</v>
+      </c>
+      <c r="F249">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I249" s="1">
+        <v>35</v>
+      </c>
+      <c r="J249">
+        <v>35.1</v>
+      </c>
+      <c r="K249" s="1">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2</v>
+      </c>
+      <c r="D250" s="1">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1">
+        <v>4</v>
+      </c>
+      <c r="F250" s="1">
+        <v>5</v>
+      </c>
+      <c r="G250" s="1">
+        <v>6</v>
+      </c>
+      <c r="H250" s="1">
+        <v>7</v>
+      </c>
+      <c r="I250" s="1">
+        <v>8</v>
+      </c>
+      <c r="J250" s="1">
+        <v>9</v>
+      </c>
+      <c r="K250" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="C251" s="1">
+        <v>14.83</v>
+      </c>
+      <c r="D251" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="E251" s="1">
+        <v>14.92</v>
+      </c>
+      <c r="F251" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="G251" s="1">
+        <v>14.89</v>
+      </c>
+      <c r="H251" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="I251" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="J251" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="K251" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B252" s="1">
+        <v>38</v>
+      </c>
+      <c r="C252" s="1">
+        <v>38</v>
+      </c>
+      <c r="D252" s="1">
+        <v>39</v>
+      </c>
+      <c r="E252" s="1">
+        <v>41</v>
+      </c>
+      <c r="F252" s="1">
+        <v>42</v>
+      </c>
+      <c r="G252" s="1">
+        <v>42</v>
+      </c>
+      <c r="H252" s="1">
+        <v>42</v>
+      </c>
+      <c r="I252" s="1">
+        <v>43</v>
+      </c>
+      <c r="J252" s="1">
+        <v>43</v>
+      </c>
+      <c r="K252" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B253" s="1">
+        <v>39</v>
+      </c>
+      <c r="C253" s="1">
+        <v>40</v>
+      </c>
+      <c r="D253" s="1">
+        <v>41</v>
+      </c>
+      <c r="E253" s="1">
+        <v>42</v>
+      </c>
+      <c r="F253" s="1">
+        <v>43</v>
+      </c>
+      <c r="G253" s="1">
+        <v>44</v>
+      </c>
+      <c r="H253" s="1">
+        <v>44</v>
+      </c>
+      <c r="I253" s="1">
+        <v>45</v>
+      </c>
+      <c r="J253" s="1">
+        <v>45</v>
+      </c>
+      <c r="K253" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B254" s="2">
+        <f>(B252+B253)/2</f>
+        <v>38.5</v>
+      </c>
+      <c r="C254" s="2">
+        <f t="shared" ref="C254:K254" si="29">(C252+C253)/2</f>
+        <v>39</v>
+      </c>
+      <c r="D254" s="2">
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" si="29"/>
+        <v>41.5</v>
+      </c>
+      <c r="F254" s="2">
+        <f t="shared" si="29"/>
+        <v>42.5</v>
+      </c>
+      <c r="G254" s="2">
+        <f t="shared" si="29"/>
+        <v>43</v>
+      </c>
+      <c r="H254" s="2">
+        <f t="shared" si="29"/>
+        <v>43</v>
+      </c>
+      <c r="I254" s="2">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="J254" s="2">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="K254" s="2">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A258" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A259" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="10"/>
+      <c r="R259" s="10"/>
+      <c r="S259" s="10"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="10"/>
+      <c r="N260" s="10"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="10"/>
+      <c r="Q260" s="10"/>
+      <c r="R260" s="10"/>
+      <c r="S260" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="A258:K258"/>
+    <mergeCell ref="A259:S260"/>
+    <mergeCell ref="A208:K208"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A45:S46"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A172:K172"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A142:K142"/>
+    <mergeCell ref="A152:K152"/>
+    <mergeCell ref="A162:K162"/>
     <mergeCell ref="A98:K98"/>
     <mergeCell ref="A105:K105"/>
     <mergeCell ref="A106:S107"/>
@@ -3666,13 +11286,6 @@
     <mergeCell ref="A73:K73"/>
     <mergeCell ref="A82:K82"/>
     <mergeCell ref="A90:K90"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A45:S46"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A49:K49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/旧飞坡射速.xlsx
+++ b/旧飞坡射速.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Githubfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0994875-08A4-4585-ABDD-D2C4609CD875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B71FF8-9711-447A-AD7D-A51531F67EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12970" windowHeight="15370" xr2:uid="{2970C3E9-E6A7-401E-A08D-E461A4051E84}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{2970C3E9-E6A7-401E-A08D-E461A4051E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
     <t>今天的数据接近完美，射速变化与电机温度和摩擦轮温度的关系越来越明显</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>在测温的过程中发现，摩擦轮朝里(即弹路一侧，与其朝外一侧的温度是不一样的，外侧的温度会比内测更低，当然这是在摩擦轮静止时得出的结论，当其运动起来的时候可能就几乎没有影响；今天是同一转速下的第四组数据了，是时侯做分析，改变变量再次测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,17 +334,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6555,10 +6562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E88F012-B31F-48B5-9F67-BDEDAFCED6F3}">
-  <dimension ref="A12:U260"/>
+  <dimension ref="A12:V335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="79" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6654,19 +6661,19 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -6797,19 +6804,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -6933,19 +6940,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -7069,19 +7076,19 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -7245,76 +7252,76 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -7456,19 +7463,19 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -7658,19 +7665,19 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -7934,19 +7941,19 @@
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -8089,19 +8096,19 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -8244,19 +8251,19 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -8399,63 +8406,63 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -8544,19 +8551,19 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
@@ -8811,19 +8818,19 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
@@ -9078,19 +9085,19 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
@@ -9345,19 +9352,19 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
@@ -9612,19 +9619,19 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -9965,19 +9972,19 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="7"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="7"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
@@ -10212,19 +10219,19 @@
       <c r="K215" s="1"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
@@ -10459,19 +10466,19 @@
       <c r="K225" s="1"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -10706,19 +10713,19 @@
       <c r="K235" s="1"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
@@ -10953,19 +10960,19 @@
       <c r="K245" s="1"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -11200,79 +11207,1459 @@
       <c r="K255" s="1"/>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9"/>
-      <c r="E258" s="9"/>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="9"/>
-      <c r="K258" s="9"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
-      <c r="L259" s="10"/>
-      <c r="M259" s="10"/>
-      <c r="N259" s="10"/>
-      <c r="O259" s="10"/>
-      <c r="P259" s="10"/>
-      <c r="Q259" s="10"/>
-      <c r="R259" s="10"/>
-      <c r="S259" s="10"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+      <c r="J259" s="8"/>
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
+      <c r="O259" s="8"/>
+      <c r="P259" s="8"/>
+      <c r="Q259" s="8"/>
+      <c r="R259" s="8"/>
+      <c r="S259" s="8"/>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
-      <c r="L260" s="10"/>
-      <c r="M260" s="10"/>
-      <c r="N260" s="10"/>
-      <c r="O260" s="10"/>
-      <c r="P260" s="10"/>
-      <c r="Q260" s="10"/>
-      <c r="R260" s="10"/>
-      <c r="S260" s="10"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="8"/>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
+      <c r="J260" s="8"/>
+      <c r="K260" s="8"/>
+      <c r="L260" s="8"/>
+      <c r="M260" s="8"/>
+      <c r="N260" s="8"/>
+      <c r="O260" s="8"/>
+      <c r="P260" s="8"/>
+      <c r="Q260" s="8"/>
+      <c r="R260" s="8"/>
+      <c r="S260" s="8"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B277" s="5">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="C277">
+        <v>5380</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="1">
+        <v>27</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G280" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H280" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C284" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E284" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="F284" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="I284" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="J284" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="K284" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1">
+        <v>4</v>
+      </c>
+      <c r="F285" s="1">
+        <v>5</v>
+      </c>
+      <c r="G285" s="1">
+        <v>6</v>
+      </c>
+      <c r="H285" s="1">
+        <v>7</v>
+      </c>
+      <c r="I285" s="1">
+        <v>8</v>
+      </c>
+      <c r="J285" s="1">
+        <v>9</v>
+      </c>
+      <c r="K285" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" s="1">
+        <v>14.23</v>
+      </c>
+      <c r="C286" s="1">
+        <v>14.48</v>
+      </c>
+      <c r="D286" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="E286" s="1">
+        <v>14.53</v>
+      </c>
+      <c r="F286" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G286" s="1">
+        <v>14.51</v>
+      </c>
+      <c r="H286" s="1">
+        <v>14.81</v>
+      </c>
+      <c r="I286" s="1">
+        <v>14.62</v>
+      </c>
+      <c r="J286" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="K286" s="1">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B287" s="1">
+        <v>30</v>
+      </c>
+      <c r="C287" s="1">
+        <v>32</v>
+      </c>
+      <c r="D287" s="1">
+        <v>32</v>
+      </c>
+      <c r="E287" s="1">
+        <v>35</v>
+      </c>
+      <c r="F287" s="1">
+        <v>36</v>
+      </c>
+      <c r="G287" s="1">
+        <v>37</v>
+      </c>
+      <c r="H287" s="1">
+        <v>37</v>
+      </c>
+      <c r="I287" s="1">
+        <v>38</v>
+      </c>
+      <c r="J287" s="1">
+        <v>38</v>
+      </c>
+      <c r="K287" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B288" s="1">
+        <v>31</v>
+      </c>
+      <c r="C288" s="1">
+        <v>33</v>
+      </c>
+      <c r="D288" s="1">
+        <v>34</v>
+      </c>
+      <c r="E288" s="1">
+        <v>37</v>
+      </c>
+      <c r="F288" s="1">
+        <v>38</v>
+      </c>
+      <c r="G288" s="1">
+        <v>38</v>
+      </c>
+      <c r="H288" s="1">
+        <v>39</v>
+      </c>
+      <c r="I288" s="1">
+        <v>40</v>
+      </c>
+      <c r="J288" s="1">
+        <v>40</v>
+      </c>
+      <c r="K288" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B289" s="2">
+        <f>(B287+B288)/2</f>
+        <v>30.5</v>
+      </c>
+      <c r="C289" s="2">
+        <f t="shared" ref="C289:K289" si="30">(C287+C288)/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="D289" s="2">
+        <f t="shared" si="30"/>
+        <v>33</v>
+      </c>
+      <c r="E289" s="2">
+        <f t="shared" si="30"/>
+        <v>36</v>
+      </c>
+      <c r="F289" s="2">
+        <f t="shared" si="30"/>
+        <v>37</v>
+      </c>
+      <c r="G289" s="2">
+        <f t="shared" si="30"/>
+        <v>37.5</v>
+      </c>
+      <c r="H289" s="2">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="I289" s="2">
+        <f t="shared" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="J289" s="2">
+        <f t="shared" si="30"/>
+        <v>39</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="30"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="9"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C294" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="D294" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="E294">
+        <v>28.8</v>
+      </c>
+      <c r="F294" s="1">
+        <v>29</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H294" s="1">
+        <v>31</v>
+      </c>
+      <c r="I294" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="J294" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="K294" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1">
+        <v>4</v>
+      </c>
+      <c r="F295" s="1">
+        <v>5</v>
+      </c>
+      <c r="G295" s="1">
+        <v>6</v>
+      </c>
+      <c r="H295" s="1">
+        <v>7</v>
+      </c>
+      <c r="I295" s="1">
+        <v>8</v>
+      </c>
+      <c r="J295" s="1">
+        <v>9</v>
+      </c>
+      <c r="K295" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="C296" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="D296" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="E296" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="F296" s="1">
+        <v>14.57</v>
+      </c>
+      <c r="G296" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="H296" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="I296" s="1">
+        <v>14.74</v>
+      </c>
+      <c r="J296" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="K296" s="1">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B297" s="1">
+        <v>36</v>
+      </c>
+      <c r="C297" s="1">
+        <v>37</v>
+      </c>
+      <c r="D297" s="1">
+        <v>38</v>
+      </c>
+      <c r="E297" s="1">
+        <v>39</v>
+      </c>
+      <c r="F297" s="1">
+        <v>40</v>
+      </c>
+      <c r="G297" s="1">
+        <v>40</v>
+      </c>
+      <c r="H297" s="1">
+        <v>40</v>
+      </c>
+      <c r="I297" s="1">
+        <v>41</v>
+      </c>
+      <c r="J297" s="1">
+        <v>42</v>
+      </c>
+      <c r="K297" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B298" s="1">
+        <v>38</v>
+      </c>
+      <c r="C298" s="1">
+        <v>38</v>
+      </c>
+      <c r="D298" s="1">
+        <v>40</v>
+      </c>
+      <c r="E298" s="1">
+        <v>40</v>
+      </c>
+      <c r="F298" s="1">
+        <v>41</v>
+      </c>
+      <c r="G298" s="1">
+        <v>42</v>
+      </c>
+      <c r="H298" s="1">
+        <v>43</v>
+      </c>
+      <c r="I298" s="1">
+        <v>43</v>
+      </c>
+      <c r="J298" s="1">
+        <v>43</v>
+      </c>
+      <c r="K298" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B299" s="2">
+        <f>(B297+B298)/2</f>
+        <v>37</v>
+      </c>
+      <c r="C299" s="2">
+        <f t="shared" ref="C299:K299" si="31">(C297+C298)/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D299" s="2">
+        <f t="shared" si="31"/>
+        <v>39</v>
+      </c>
+      <c r="E299" s="2">
+        <f t="shared" si="31"/>
+        <v>39.5</v>
+      </c>
+      <c r="F299" s="2">
+        <f t="shared" si="31"/>
+        <v>40.5</v>
+      </c>
+      <c r="G299" s="2">
+        <f t="shared" si="31"/>
+        <v>41</v>
+      </c>
+      <c r="H299" s="2">
+        <f t="shared" si="31"/>
+        <v>41.5</v>
+      </c>
+      <c r="I299" s="2">
+        <f t="shared" si="31"/>
+        <v>42</v>
+      </c>
+      <c r="J299" s="2">
+        <f t="shared" si="31"/>
+        <v>42.5</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="31"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="D304" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="E304">
+        <v>30.1</v>
+      </c>
+      <c r="F304" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H304" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="I304" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J304" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K304" s="1">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1">
+        <v>2</v>
+      </c>
+      <c r="D305" s="1">
+        <v>3</v>
+      </c>
+      <c r="E305" s="1">
+        <v>4</v>
+      </c>
+      <c r="F305" s="1">
+        <v>5</v>
+      </c>
+      <c r="G305" s="1">
+        <v>6</v>
+      </c>
+      <c r="H305" s="1">
+        <v>7</v>
+      </c>
+      <c r="I305" s="1">
+        <v>8</v>
+      </c>
+      <c r="J305" s="1">
+        <v>9</v>
+      </c>
+      <c r="K305" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="C306" s="1">
+        <v>14.81</v>
+      </c>
+      <c r="D306" s="1">
+        <v>14.79</v>
+      </c>
+      <c r="E306" s="1">
+        <v>14.72</v>
+      </c>
+      <c r="F306" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="G306" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="H306" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="I306" s="1">
+        <v>14.66</v>
+      </c>
+      <c r="J306" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="K306" s="1">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B307" s="1">
+        <v>38</v>
+      </c>
+      <c r="C307" s="1">
+        <v>38</v>
+      </c>
+      <c r="D307" s="1">
+        <v>39</v>
+      </c>
+      <c r="E307" s="1">
+        <v>40</v>
+      </c>
+      <c r="F307" s="1">
+        <v>41</v>
+      </c>
+      <c r="G307" s="1">
+        <v>41</v>
+      </c>
+      <c r="H307" s="1">
+        <v>42</v>
+      </c>
+      <c r="I307" s="1">
+        <v>42</v>
+      </c>
+      <c r="J307" s="1">
+        <v>42</v>
+      </c>
+      <c r="K307" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B308" s="1">
+        <v>40</v>
+      </c>
+      <c r="C308" s="1">
+        <v>40</v>
+      </c>
+      <c r="D308" s="1">
+        <v>41</v>
+      </c>
+      <c r="E308" s="1">
+        <v>42</v>
+      </c>
+      <c r="F308" s="1">
+        <v>43</v>
+      </c>
+      <c r="G308" s="1">
+        <v>44</v>
+      </c>
+      <c r="H308" s="1">
+        <v>43</v>
+      </c>
+      <c r="I308" s="1">
+        <v>43</v>
+      </c>
+      <c r="J308" s="1">
+        <v>44</v>
+      </c>
+      <c r="K308" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" s="2">
+        <f>(B307+B308)/2</f>
+        <v>39</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" ref="C309:K309" si="32">(C307+C308)/2</f>
+        <v>39</v>
+      </c>
+      <c r="D309" s="2">
+        <f t="shared" si="32"/>
+        <v>40</v>
+      </c>
+      <c r="E309" s="2">
+        <f t="shared" si="32"/>
+        <v>41</v>
+      </c>
+      <c r="F309" s="2">
+        <f t="shared" si="32"/>
+        <v>42</v>
+      </c>
+      <c r="G309" s="2">
+        <f t="shared" si="32"/>
+        <v>42.5</v>
+      </c>
+      <c r="H309" s="2">
+        <f t="shared" si="32"/>
+        <v>42.5</v>
+      </c>
+      <c r="I309" s="2">
+        <f t="shared" si="32"/>
+        <v>42.5</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" si="32"/>
+        <v>43</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="32"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="9"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="E314">
+        <v>31.7</v>
+      </c>
+      <c r="F314" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H314" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I314" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="J314" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K314" s="1">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2</v>
+      </c>
+      <c r="D315" s="1">
+        <v>3</v>
+      </c>
+      <c r="E315" s="1">
+        <v>4</v>
+      </c>
+      <c r="F315" s="1">
+        <v>5</v>
+      </c>
+      <c r="G315" s="1">
+        <v>6</v>
+      </c>
+      <c r="H315" s="1">
+        <v>7</v>
+      </c>
+      <c r="I315" s="1">
+        <v>8</v>
+      </c>
+      <c r="J315" s="1">
+        <v>9</v>
+      </c>
+      <c r="K315" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="C316" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="D316" s="1">
+        <v>13.97</v>
+      </c>
+      <c r="E316" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="F316" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="G316" s="1">
+        <v>14.77</v>
+      </c>
+      <c r="H316" s="1">
+        <v>14.88</v>
+      </c>
+      <c r="I316" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="J316" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="K316" s="1">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B317" s="1">
+        <v>37</v>
+      </c>
+      <c r="C317" s="1">
+        <v>38</v>
+      </c>
+      <c r="D317" s="1">
+        <v>41</v>
+      </c>
+      <c r="E317" s="1">
+        <v>40</v>
+      </c>
+      <c r="F317" s="1">
+        <v>42</v>
+      </c>
+      <c r="G317" s="1">
+        <v>42</v>
+      </c>
+      <c r="H317" s="1">
+        <v>43</v>
+      </c>
+      <c r="I317" s="1">
+        <v>43</v>
+      </c>
+      <c r="J317" s="1">
+        <v>43</v>
+      </c>
+      <c r="K317" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B318" s="1">
+        <v>40</v>
+      </c>
+      <c r="C318" s="1">
+        <v>40</v>
+      </c>
+      <c r="D318" s="1">
+        <v>42</v>
+      </c>
+      <c r="E318" s="1">
+        <v>43</v>
+      </c>
+      <c r="F318" s="1">
+        <v>44</v>
+      </c>
+      <c r="G318" s="1">
+        <v>44</v>
+      </c>
+      <c r="H318" s="1">
+        <v>44</v>
+      </c>
+      <c r="I318" s="1">
+        <v>44</v>
+      </c>
+      <c r="J318" s="1">
+        <v>45</v>
+      </c>
+      <c r="K318" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B319" s="2">
+        <f>(B317+B318)/2</f>
+        <v>38.5</v>
+      </c>
+      <c r="C319" s="2">
+        <f t="shared" ref="C319:K319" si="33">(C317+C318)/2</f>
+        <v>39</v>
+      </c>
+      <c r="D319" s="2">
+        <f t="shared" si="33"/>
+        <v>41.5</v>
+      </c>
+      <c r="E319" s="2">
+        <f t="shared" si="33"/>
+        <v>41.5</v>
+      </c>
+      <c r="F319" s="2">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="G319" s="2">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="H319" s="2">
+        <f t="shared" si="33"/>
+        <v>43.5</v>
+      </c>
+      <c r="I319" s="2">
+        <f t="shared" si="33"/>
+        <v>43.5</v>
+      </c>
+      <c r="J319" s="2">
+        <f t="shared" si="33"/>
+        <v>44</v>
+      </c>
+      <c r="K319" s="2">
+        <f t="shared" si="33"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1"/>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A323" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="9"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="9"/>
+      <c r="K323" s="9"/>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C324">
+        <v>31.4</v>
+      </c>
+      <c r="D324">
+        <v>31.3</v>
+      </c>
+      <c r="E324">
+        <v>32</v>
+      </c>
+      <c r="F324">
+        <v>32.1</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H324">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I324">
+        <v>33.9</v>
+      </c>
+      <c r="J324">
+        <v>33.9</v>
+      </c>
+      <c r="K324">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1">
+        <v>2</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1">
+        <v>4</v>
+      </c>
+      <c r="F325" s="1">
+        <v>5</v>
+      </c>
+      <c r="G325" s="1">
+        <v>6</v>
+      </c>
+      <c r="H325" s="1">
+        <v>7</v>
+      </c>
+      <c r="I325" s="1">
+        <v>8</v>
+      </c>
+      <c r="J325" s="1">
+        <v>9</v>
+      </c>
+      <c r="K325" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="C326" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="D326" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="E326" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="F326" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="G326" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="H326" s="1">
+        <v>14.88</v>
+      </c>
+      <c r="I326" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="J326" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="K326" s="1">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B327" s="1">
+        <v>38</v>
+      </c>
+      <c r="C327" s="1">
+        <v>38</v>
+      </c>
+      <c r="D327" s="1">
+        <v>39</v>
+      </c>
+      <c r="E327" s="1">
+        <v>40</v>
+      </c>
+      <c r="F327" s="1">
+        <v>42</v>
+      </c>
+      <c r="G327" s="1">
+        <v>43</v>
+      </c>
+      <c r="H327" s="1">
+        <v>43</v>
+      </c>
+      <c r="I327" s="1">
+        <v>43</v>
+      </c>
+      <c r="J327" s="1">
+        <v>43</v>
+      </c>
+      <c r="K327" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B328" s="1">
+        <v>41</v>
+      </c>
+      <c r="C328" s="1">
+        <v>40</v>
+      </c>
+      <c r="D328" s="1">
+        <v>41</v>
+      </c>
+      <c r="E328" s="1">
+        <v>42</v>
+      </c>
+      <c r="F328" s="1">
+        <v>44</v>
+      </c>
+      <c r="G328" s="1">
+        <v>44</v>
+      </c>
+      <c r="H328" s="1">
+        <v>45</v>
+      </c>
+      <c r="I328" s="1">
+        <v>45</v>
+      </c>
+      <c r="J328" s="1">
+        <v>45</v>
+      </c>
+      <c r="K328" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B329" s="2">
+        <f>(B327+B328)/2</f>
+        <v>39.5</v>
+      </c>
+      <c r="C329" s="2">
+        <f t="shared" ref="C329:K329" si="34">(C327+C328)/2</f>
+        <v>39</v>
+      </c>
+      <c r="D329" s="2">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="E329" s="2">
+        <f t="shared" si="34"/>
+        <v>41</v>
+      </c>
+      <c r="F329" s="2">
+        <f t="shared" si="34"/>
+        <v>43</v>
+      </c>
+      <c r="G329" s="2">
+        <f t="shared" si="34"/>
+        <v>43.5</v>
+      </c>
+      <c r="H329" s="2">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+      <c r="I329" s="2">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+      <c r="J329" s="2">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+      <c r="K329" s="2">
+        <f t="shared" si="34"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A333" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" s="7"/>
+      <c r="H333" s="7"/>
+      <c r="I333" s="7"/>
+      <c r="J333" s="7"/>
+      <c r="K333" s="7"/>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A334" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="11"/>
+      <c r="M334" s="11"/>
+      <c r="N334" s="11"/>
+      <c r="O334" s="11"/>
+      <c r="P334" s="11"/>
+      <c r="Q334" s="11"/>
+      <c r="R334" s="11"/>
+      <c r="S334" s="11"/>
+      <c r="T334" s="11"/>
+      <c r="U334" s="11"/>
+      <c r="V334" s="11"/>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A335" s="11"/>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="11"/>
+      <c r="M335" s="11"/>
+      <c r="N335" s="11"/>
+      <c r="O335" s="11"/>
+      <c r="P335" s="11"/>
+      <c r="Q335" s="11"/>
+      <c r="R335" s="11"/>
+      <c r="S335" s="11"/>
+      <c r="T335" s="11"/>
+      <c r="U335" s="11"/>
+      <c r="V335" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A258:K258"/>
-    <mergeCell ref="A259:S260"/>
-    <mergeCell ref="A208:K208"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A45:S46"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A32:K32"/>
+  <mergeCells count="33">
+    <mergeCell ref="A333:K333"/>
+    <mergeCell ref="A334:V335"/>
+    <mergeCell ref="A283:K283"/>
+    <mergeCell ref="A293:K293"/>
+    <mergeCell ref="A303:K303"/>
+    <mergeCell ref="A313:K313"/>
+    <mergeCell ref="A323:K323"/>
     <mergeCell ref="A172:K172"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A132:K132"/>
@@ -11286,6 +12673,19 @@
     <mergeCell ref="A73:K73"/>
     <mergeCell ref="A82:K82"/>
     <mergeCell ref="A90:K90"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A45:S46"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A258:K258"/>
+    <mergeCell ref="A259:S260"/>
+    <mergeCell ref="A208:K208"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A248:K248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
